--- a/sobaodanh1.xlsx
+++ b/sobaodanh1.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuanlam/Downloads/mflix-java/CrawlDiemThi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{6240C7FD-BBA4-554F-BED9-55D359D7725D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2162B88-DB50-0442-A893-D8A626F8B8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="16940" windowWidth="27640" xWindow="6860" xr2:uid="{54DE3D2F-BB0E-144F-B6C5-25A9DB98F9A6}" yWindow="3080"/>
+    <workbookView xWindow="6860" yWindow="3080" windowWidth="27640" windowHeight="16940" xr2:uid="{54DE3D2F-BB0E-144F-B6C5-25A9DB98F9A6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>29003681</t>
   </si>
@@ -106,118 +106,19 @@
   </si>
   <si>
     <t>GDCD</t>
-  </si>
-  <si>
-    <t>8.60</t>
-  </si>
-  <si>
-    <t>7.75</t>
-  </si>
-  <si>
-    <t>7.25</t>
-  </si>
-  <si>
-    <t>8.00</t>
-  </si>
-  <si>
-    <t>3.75</t>
-  </si>
-  <si>
-    <t>8.20</t>
-  </si>
-  <si>
-    <t>9.00</t>
-  </si>
-  <si>
-    <t>9.40</t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>7.60</t>
-  </si>
-  <si>
-    <t>8.75</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>8.80</t>
-  </si>
-  <si>
-    <t>5.50</t>
-  </si>
-  <si>
-    <t>7.20</t>
-  </si>
-  <si>
-    <t>6.25</t>
-  </si>
-  <si>
-    <t>8.25</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>8.40</t>
-  </si>
-  <si>
-    <t>4.75</t>
-  </si>
-  <si>
-    <t>8.50</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>9.20</t>
-  </si>
-  <si>
-    <t>5.75</t>
-  </si>
-  <si>
-    <t>9.50</t>
-  </si>
-  <si>
-    <t>7.50</t>
-  </si>
-  <si>
-    <t>9.25</t>
-  </si>
-  <si>
-    <t>6.75</t>
-  </si>
-  <si>
-    <t>6.50</t>
-  </si>
-  <si>
-    <t>9.80</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
   </fonts>
   <fills count="2">
@@ -238,17 +139,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -265,10 +165,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -303,7 +203,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -355,7 +255,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -466,21 +366,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -497,7 +397,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -549,18 +449,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7CE60C6-A968-D549-AE46-1B0692E2C8B6}">
-  <dimension ref="A1:K15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7CE60C6-A968-D549-AE46-1B0692E2C8B6}">
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -601,316 +501,73 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" t="s">
-        <v>52</v>
-      </c>
-      <c r="J12" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>